--- a/docs/figures/tables.xlsx
+++ b/docs/figures/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\smirk\docs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB01C90D-D835-4006-AF3F-1BEF7A5DE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085385F4-3B1B-4540-96E5-9E67591F5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43020" yWindow="915" windowWidth="28245" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
   <si>
     <t>SYS-ML-REQ1</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Addressed by model and deployment requirements</t>
+  </si>
+  <si>
+    <t>SYS-PER-REQ6</t>
   </si>
 </sst>
 </file>
@@ -265,10 +268,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -276,12 +288,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,9 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85438ABE-8CC5-41BE-881E-8B0C27850710}">
-  <dimension ref="B2:Y13"/>
+  <dimension ref="B2:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,104 +595,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="V4" s="2"/>
@@ -698,327 +701,354 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="8" t="s">
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="8" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E10:U10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E12:U12"/>
     <mergeCell ref="E2:U2"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B5:B13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="E10:U10"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1044,104 +1074,104 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="V4" s="2"/>
@@ -1150,240 +1180,240 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:U2"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="B5:B13"/>
-    <mergeCell ref="E2:U2"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/figures/tables.xlsx
+++ b/docs/figures/tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\smirk\docs\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\smirk\docs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085385F4-3B1B-4540-96E5-9E67591F5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72179834-32F1-4F9C-8D0B-DC09AFC5825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43020" yWindow="915" windowWidth="28245" windowHeight="18990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matrix" sheetId="2" r:id="rId1"/>
-    <sheet name="Empty" sheetId="1" r:id="rId2"/>
+    <sheet name="Data-Matrix" sheetId="2" r:id="rId1"/>
+    <sheet name="Test-Matrix" sheetId="3" r:id="rId2"/>
+    <sheet name="Empty" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="48">
   <si>
     <t>SYS-ML-REQ1</t>
   </si>
@@ -140,6 +141,36 @@
   </si>
   <si>
     <t>SYS-PER-REQ6</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>TC-OS-[1-18]</t>
+  </si>
+  <si>
+    <t>TC-OS-[19-32]</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>TC-RAND-[1-18]</t>
+  </si>
+  <si>
+    <t>TC-RAND-[19-32]</t>
+  </si>
+  <si>
+    <t>Requirements-based</t>
+  </si>
+  <si>
+    <t>Test detection around TTC=4</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -258,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -277,11 +308,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -297,6 +325,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,69 +623,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85438ABE-8CC5-41BE-881E-8B0C27850710}">
   <dimension ref="B2:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="5.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="5.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E3" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -700,11 +743,11 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -760,9 +803,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -792,9 +835,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -824,9 +867,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -850,9 +893,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -884,35 +927,35 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-    </row>
-    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -940,35 +983,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14"/>
-    </row>
-    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1002,9 +1045,9 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1038,17 +1081,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:U2"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="E10:U10"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E12:U12"/>
-    <mergeCell ref="E2:U2"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1056,6 +1099,280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5BCC75-6C56-40A1-9D97-7C7874AAD5C0}">
+  <dimension ref="B2:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O4:W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="2:17" ht="196.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E12:M12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Y13"/>
   <sheetViews>
@@ -1063,65 +1380,65 @@
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="5.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="5.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E3" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -1179,11 +1496,11 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1207,9 +1524,9 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1231,9 +1548,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1257,9 +1574,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1281,9 +1598,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1305,9 +1622,9 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1329,9 +1646,9 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
+    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1353,9 +1670,9 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1379,9 +1696,9 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
+    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1405,6 +1722,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B5:B13"/>
     <mergeCell ref="E2:U2"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C12:C13"/>
@@ -1413,7 +1731,6 @@
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B5:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/figures/tables.xlsx
+++ b/docs/figures/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\smirk\docs\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\smirk\docs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72179834-32F1-4F9C-8D0B-DC09AFC5825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1395E4-DD7A-42C9-BFC2-9D343335BF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28320" yWindow="330" windowWidth="27495" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Matrix" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
   <si>
     <t>SYS-ML-REQ1</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>SYS-ROB-REQ3</t>
+  </si>
+  <si>
+    <t>SYS-ROB-REQ4</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -311,6 +317,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -325,12 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,71 +630,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85438ABE-8CC5-41BE-881E-8B0C27850710}">
-  <dimension ref="B2:Y14"/>
+  <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="5.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="5.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -743,11 +752,11 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -803,9 +812,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -835,9 +844,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -867,9 +876,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -893,9 +902,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -927,35 +936,35 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -983,35 +992,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1045,53 +1054,121 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+    <row r="14" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E10:U10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E12:U12"/>
     <mergeCell ref="E2:U2"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="E10:U10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E12:U12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1100,57 +1177,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5BCC75-6C56-40A1-9D97-7C7874AAD5C0}">
-  <dimension ref="B2:Q14"/>
+  <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O4:W13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9.109375" style="1"/>
-    <col min="17" max="17" width="16.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="16.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="2:17" ht="196.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:17" ht="196.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>39</v>
@@ -1176,11 +1253,11 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1202,9 +1279,9 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1218,9 +1295,9 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1236,9 +1313,9 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1252,9 +1329,9 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+    <row r="9" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1268,27 +1345,27 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1302,27 +1379,27 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1338,34 +1415,66 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+    <row r="14" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="C13:C16"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1380,65 +1489,65 @@
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="5.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="5.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-    </row>
-    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -1496,11 +1605,11 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1524,9 +1633,9 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1548,9 +1657,9 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1574,9 +1683,9 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1598,9 +1707,9 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1622,9 +1731,9 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1646,9 +1755,9 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1670,9 +1779,9 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1696,9 +1805,9 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>

--- a/docs/figures/tables.xlsx
+++ b/docs/figures/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\smirk\docs\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1395E4-DD7A-42C9-BFC2-9D343335BF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA86ACE-2536-4D29-B521-63E509359136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28320" yWindow="330" windowWidth="27495" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47925" yWindow="1005" windowWidth="23805" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Matrix" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
   <si>
     <t>SYS-ML-REQ1</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>SYS-ROB-REQ4</t>
+  </si>
+  <si>
+    <t>Not related to the data requirements</t>
+  </si>
+  <si>
+    <t>DAT-COM-REQ6</t>
+  </si>
+  <si>
+    <t>DAT-COM-REQ7</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -313,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85438ABE-8CC5-41BE-881E-8B0C27850710}">
-  <dimension ref="B2:Y16"/>
+  <dimension ref="B2:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,59 +654,63 @@
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="5.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="23" width="5.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
+    <row r="2" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E3" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-    </row>
-    <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="2:27" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
@@ -733,30 +749,36 @@
         <v>20</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -793,10 +815,10 @@
       <c r="O5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="R5" s="4" t="s">
@@ -811,10 +833,16 @@
       <c r="U5" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="V5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -833,20 +861,22 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -867,18 +897,24 @@
       <c r="O7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="P7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -895,16 +931,18 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -927,44 +965,52 @@
       <c r="O9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="P9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-    </row>
-    <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -979,48 +1025,54 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="P11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="10"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="V11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="16"/>
-    </row>
-    <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1047,16 +1099,22 @@
       <c r="O13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="P13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1081,16 +1139,22 @@
       <c r="O14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="P14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1115,16 +1179,22 @@
       <c r="O15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="P15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+    </row>
+    <row r="16" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1149,26 +1219,32 @@
       <c r="O16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="E10:U10"/>
+    <mergeCell ref="E10:W10"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E12:U12"/>
-    <mergeCell ref="E2:U2"/>
+    <mergeCell ref="E12:W12"/>
+    <mergeCell ref="E2:W2"/>
     <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1198,34 +1274,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="2:17" ht="196.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
@@ -1254,10 +1330,10 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1280,8 +1356,8 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1296,8 +1372,8 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1314,8 +1390,8 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1330,8 +1406,8 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1346,26 +1422,26 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1380,26 +1456,26 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1416,8 +1492,8 @@
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1432,8 +1508,8 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1448,8 +1524,8 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1465,16 +1541,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1500,52 +1576,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="2:25" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3"/>
@@ -1606,10 +1682,10 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1634,8 +1710,8 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1658,8 +1734,8 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1684,8 +1760,8 @@
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1784,8 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1732,8 +1808,8 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1756,8 +1832,8 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1780,8 +1856,8 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1806,8 +1882,8 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
